--- a/biology/Zoologie/Cyllopsis/Cyllopsis.xlsx
+++ b/biology/Zoologie/Cyllopsis/Cyllopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyllopsis est un genre de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae qui résident tous en Amérique.
 </t>
@@ -511,13 +523,15 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cyllopsis argentella (Butler et Druce, 1872) présent au Costa Rica et au Panama
 Cyllopsis caballeroi Beutelspacher, 1982 présent au Mexique
 Cyllopsis clinas (Godman et Salvin, 1889) présent au Mexique
 Cyllopsis diazi Miller, 1974 présent au Mexique
-Cyllopsis dospassosi Miller, [1969] présent au Mexique
+Cyllopsis dospassosi Miller,  présent au Mexique
 Cyllopsis emilia Chacon et Nishida, 2002  présent au Costa Rica
 Cyllopsis gemma (Hübner, 1808) dans le Sud-Est des États-Unis et au Mexique
 Cyllopsis gemma freemani (Stallings &amp; Turner, 1947) au Texas
@@ -526,13 +540,13 @@
 Cyllopsis hedemanni hedemanni au Mexique, au Guatemala et au Panama
 Cyllopsis hedemanni tamaulipensis Miller, 1974 au Mexique
 Cyllopsis hedemanni vetones (Godman &amp; Salvin, 1878) au Costa Rica
-Cyllopsis hilaria (Godman, [1901]) au Mexique
+Cyllopsis hilaria (Godman, ) au Mexique
 [Cyllopsis jacquelinae Miller, 1974 au Mexique
 Cyllopsis nayarit (Chermock, 1947) au Mexique
-Cyllopsis nelsoni (Godman &amp; Salvin, [1881]) au Guatemala et au Panama
+Cyllopsis nelsoni (Godman &amp; Salvin, ) au Guatemala et au Panama
 Cyllopsis pallens Miller, 1974  au Guatemala
 Cyllopsis parvimaculata Miller, 1974 au Mexique
-Cyllopsis pephredo (Godman, [1901]) au Mexique et au Panama
+Cyllopsis pephredo (Godman, ) au Mexique et au Panama
 Cyllopsis perplexa Miller, 1974
 Cyllopsis pertepida (Dyar, 1912) sur la côte ouest des États-Unis et au Mexique
 Cyllopsis pertepida pertepida au Mexique
